--- a/duty_files/DUTY LIST_Invigilator_UG3rd_2025.xlsx
+++ b/duty_files/DUTY LIST_Invigilator_UG3rd_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B855D7-6557-458D-A853-7D6E8A8B2B9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77DCC34-EF37-4852-99DC-C73C4C37EFC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -40,16 +40,6 @@
         <family val="2"/>
       </rPr>
       <t>MR. SWAPNAJYOTI SARMA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✓</t>
     </r>
   </si>
   <si>
@@ -1065,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1082,27 +1072,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1123,10 +1092,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1135,10 +1116,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1482,7 +1475,7 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1515,1448 +1508,1448 @@
       <c r="F1" s="2">
         <v>46003</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="12">
         <v>46006</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
+      <c r="B2" s="25">
+        <v>1</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
+      <c r="E2" s="4">
+        <v>1</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
+      <c r="C3" s="4">
+        <v>1</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="4" t="s">
-        <v>2</v>
+      <c r="D7" s="4">
+        <v>1</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="9"/>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>2</v>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="9"/>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>2</v>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="4" t="s">
-        <v>2</v>
+      <c r="D11" s="4">
+        <v>1</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="9"/>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="4" t="s">
-        <v>2</v>
+      <c r="C12" s="4">
+        <v>1</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
+      <c r="E12" s="4">
+        <v>1</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="9"/>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="9"/>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="4" t="s">
-        <v>2</v>
+      <c r="C14" s="4">
+        <v>1</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="4" t="s">
-        <v>2</v>
+      <c r="E15" s="4">
+        <v>1</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="9"/>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>2</v>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="9"/>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="4" t="s">
-        <v>2</v>
+      <c r="C19" s="4">
+        <v>1</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="9"/>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="4" t="s">
-        <v>2</v>
+      <c r="C20" s="4">
+        <v>1</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="4" t="s">
-        <v>2</v>
+      <c r="E20" s="4">
+        <v>1</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="4" t="s">
-        <v>2</v>
+      <c r="D21" s="4">
+        <v>1</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="4" t="s">
-        <v>2</v>
+      <c r="C22" s="4">
+        <v>1</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="9"/>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="4" t="s">
-        <v>2</v>
+      <c r="D24" s="4">
+        <v>1</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="4" t="s">
-        <v>2</v>
+      <c r="C25" s="4">
+        <v>1</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="4" t="s">
-        <v>2</v>
+      <c r="E25" s="4">
+        <v>1</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="9"/>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>2</v>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="4" t="s">
-        <v>2</v>
+      <c r="C28" s="4">
+        <v>1</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="4" t="s">
-        <v>2</v>
+      <c r="E28" s="4">
+        <v>1</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="9"/>
+      <c r="G28" s="16">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>2</v>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="9"/>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="4" t="s">
-        <v>2</v>
+      <c r="D30" s="4">
+        <v>1</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="9"/>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="4" t="s">
-        <v>2</v>
+      <c r="C31" s="4">
+        <v>1</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="4" t="s">
-        <v>2</v>
+      <c r="E31" s="4">
+        <v>1</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="9"/>
+      <c r="G31" s="16">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="4" t="s">
-        <v>2</v>
+      <c r="E32" s="4">
+        <v>1</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="4" t="s">
-        <v>2</v>
+      <c r="D33" s="4">
+        <v>1</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="9"/>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="16">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="4" t="s">
-        <v>2</v>
+      <c r="C34" s="4">
+        <v>1</v>
       </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="4" t="s">
-        <v>2</v>
+      <c r="E34" s="4">
+        <v>1</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="9"/>
+      <c r="G34" s="16">
+        <v>1</v>
+      </c>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="4" t="s">
-        <v>2</v>
+      <c r="D35" s="4">
+        <v>1</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7"/>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="4" t="s">
-        <v>2</v>
+      <c r="C36" s="4">
+        <v>1</v>
       </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="4" t="s">
-        <v>2</v>
+      <c r="E36" s="4">
+        <v>1</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>2</v>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="7"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="20"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10">
+        <v>1</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="20">
+        <v>1</v>
+      </c>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7"/>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
       </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="4" t="s">
-        <v>2</v>
+      <c r="D43" s="4">
+        <v>1</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="9"/>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16">
+        <v>1</v>
+      </c>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="4" t="s">
-        <v>2</v>
+      <c r="C44" s="4">
+        <v>1</v>
       </c>
       <c r="D44" s="5"/>
-      <c r="E44" s="4" t="s">
-        <v>2</v>
+      <c r="E44" s="4">
+        <v>1</v>
       </c>
       <c r="F44" s="5"/>
-      <c r="G44" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="9"/>
+      <c r="G44" s="16">
+        <v>1</v>
+      </c>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="4" t="s">
-        <v>2</v>
+      <c r="D45" s="4">
+        <v>1</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="7"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="5"/>
-      <c r="C46" s="4" t="s">
-        <v>2</v>
+      <c r="C46" s="4">
+        <v>1</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="7"/>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="4" t="s">
-        <v>2</v>
+      <c r="D47" s="4">
+        <v>1</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="9"/>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="16">
+        <v>1</v>
+      </c>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="7"/>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="7"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="5"/>
-      <c r="C50" s="4" t="s">
-        <v>2</v>
+      <c r="C50" s="4">
+        <v>1</v>
       </c>
       <c r="D50" s="5"/>
-      <c r="E50" s="4" t="s">
-        <v>2</v>
+      <c r="E50" s="4">
+        <v>1</v>
       </c>
       <c r="F50" s="5"/>
-      <c r="G50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="9"/>
+      <c r="G50" s="16">
+        <v>1</v>
+      </c>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="4" t="s">
-        <v>2</v>
+      <c r="D51" s="4">
+        <v>1</v>
       </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="7"/>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5"/>
-      <c r="C52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>2</v>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
       </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="7"/>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="4" t="s">
-        <v>2</v>
+      <c r="E53" s="4">
+        <v>1</v>
       </c>
       <c r="F53" s="5"/>
-      <c r="G53" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="9"/>
+      <c r="G53" s="16">
+        <v>1</v>
+      </c>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
       </c>
       <c r="D54" s="5"/>
-      <c r="E54" s="4" t="s">
-        <v>2</v>
+      <c r="E54" s="4">
+        <v>1</v>
       </c>
       <c r="F54" s="5"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="7"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="5"/>
-      <c r="C55" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>2</v>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="9"/>
+      <c r="G55" s="16">
+        <v>1</v>
+      </c>
+      <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="7"/>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
     </row>
     <row r="57" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>2</v>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="9"/>
+      <c r="G57" s="16">
+        <v>1</v>
+      </c>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="5"/>
-      <c r="C58" s="4" t="s">
-        <v>2</v>
+      <c r="C58" s="4">
+        <v>1</v>
       </c>
       <c r="D58" s="5"/>
-      <c r="E58" s="4" t="s">
-        <v>2</v>
+      <c r="E58" s="4">
+        <v>1</v>
       </c>
       <c r="F58" s="5"/>
-      <c r="G58" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="9"/>
+      <c r="G58" s="16">
+        <v>1</v>
+      </c>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="5"/>
-      <c r="C59" s="4" t="s">
-        <v>2</v>
+      <c r="C59" s="4">
+        <v>1</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="7"/>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="4" t="s">
-        <v>2</v>
+      <c r="E60" s="4">
+        <v>1</v>
       </c>
       <c r="F60" s="5"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="7"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="15"/>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="5"/>
-      <c r="C61" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>2</v>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="9"/>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="16">
+        <v>1</v>
+      </c>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="5"/>
-      <c r="C62" s="4" t="s">
-        <v>2</v>
+      <c r="C62" s="4">
+        <v>1</v>
       </c>
       <c r="D62" s="5"/>
-      <c r="E62" s="4" t="s">
-        <v>2</v>
+      <c r="E62" s="4">
+        <v>1</v>
       </c>
       <c r="F62" s="5"/>
-      <c r="G62" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="9"/>
+      <c r="G62" s="16">
+        <v>1</v>
+      </c>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="4" t="s">
-        <v>2</v>
+      <c r="D63" s="4">
+        <v>1</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G63" s="6"/>
-      <c r="H63" s="7"/>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="15"/>
     </row>
     <row r="64" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="5"/>
-      <c r="C64" s="4" t="s">
-        <v>2</v>
+      <c r="C64" s="4">
+        <v>1</v>
       </c>
       <c r="D64" s="5"/>
-      <c r="E64" s="4" t="s">
-        <v>2</v>
+      <c r="E64" s="4">
+        <v>1</v>
       </c>
       <c r="F64" s="5"/>
-      <c r="G64" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="9"/>
+      <c r="G64" s="16">
+        <v>1</v>
+      </c>
+      <c r="H64" s="17"/>
     </row>
     <row r="65" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="4" t="s">
-        <v>2</v>
+      <c r="D65" s="4">
+        <v>1</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="7"/>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="14"/>
+      <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="5"/>
-      <c r="C66" s="4" t="s">
-        <v>2</v>
+      <c r="C66" s="4">
+        <v>1</v>
       </c>
       <c r="D66" s="5"/>
-      <c r="E66" s="4" t="s">
-        <v>2</v>
+      <c r="E66" s="4">
+        <v>1</v>
       </c>
       <c r="F66" s="5"/>
-      <c r="G66" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="9"/>
+      <c r="G66" s="16">
+        <v>1</v>
+      </c>
+      <c r="H66" s="17"/>
     </row>
     <row r="67" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="5"/>
-      <c r="C67" s="4" t="s">
-        <v>2</v>
+      <c r="C67" s="4">
+        <v>1</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="7"/>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="15"/>
     </row>
     <row r="68" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>2</v>
+        <v>67</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>2</v>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
       </c>
       <c r="F68" s="5"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="7"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15"/>
     </row>
     <row r="69" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="5"/>
-      <c r="C69" s="4" t="s">
-        <v>2</v>
+      <c r="C69" s="4">
+        <v>1</v>
       </c>
       <c r="D69" s="5"/>
-      <c r="E69" s="4" t="s">
-        <v>2</v>
+      <c r="E69" s="4">
+        <v>1</v>
       </c>
       <c r="F69" s="5"/>
-      <c r="G69" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="9"/>
+      <c r="G69" s="16">
+        <v>1</v>
+      </c>
+      <c r="H69" s="17"/>
     </row>
     <row r="70" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="4" t="s">
-        <v>2</v>
+      <c r="D70" s="4">
+        <v>1</v>
       </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="7"/>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="15"/>
     </row>
     <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="5"/>
-      <c r="C71" s="4" t="s">
-        <v>2</v>
+      <c r="C71" s="4">
+        <v>1</v>
       </c>
       <c r="D71" s="5"/>
-      <c r="E71" s="4" t="s">
-        <v>2</v>
+      <c r="E71" s="4">
+        <v>1</v>
       </c>
       <c r="F71" s="5"/>
-      <c r="G71" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H71" s="9"/>
+      <c r="G71" s="16">
+        <v>1</v>
+      </c>
+      <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="4" t="s">
-        <v>2</v>
+      <c r="D72" s="4">
+        <v>1</v>
       </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="7"/>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15"/>
     </row>
     <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="5"/>
-      <c r="C73" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>2</v>
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
       </c>
       <c r="F73" s="5"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="10"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="24"/>
     </row>
     <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="5"/>
-      <c r="C74" s="4" t="s">
-        <v>2</v>
+      <c r="C74" s="4">
+        <v>1</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="7"/>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="15"/>
     </row>
     <row r="75" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="4" t="s">
-        <v>2</v>
+      <c r="D75" s="4">
+        <v>1</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="7"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15"/>
     </row>
     <row r="76" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="5"/>
-      <c r="C76" s="4" t="s">
-        <v>2</v>
+      <c r="C76" s="4">
+        <v>1</v>
       </c>
       <c r="D76" s="5"/>
-      <c r="E76" s="4" t="s">
-        <v>2</v>
+      <c r="E76" s="4">
+        <v>1</v>
       </c>
       <c r="F76" s="5"/>
-      <c r="G76" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="9"/>
+      <c r="G76" s="16">
+        <v>1</v>
+      </c>
+      <c r="H76" s="17"/>
     </row>
     <row r="77" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="7"/>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="4" t="s">
-        <v>2</v>
+      <c r="D78" s="4">
+        <v>1</v>
       </c>
       <c r="E78" s="5"/>
-      <c r="F78" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="7"/>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15"/>
     </row>
     <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="5"/>
-      <c r="C79" s="4" t="s">
-        <v>2</v>
+      <c r="C79" s="4">
+        <v>1</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="E79" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="7"/>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/duty_files/DUTY LIST_Invigilator_UG3rd_2025.xlsx
+++ b/duty_files/DUTY LIST_Invigilator_UG3rd_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77DCC34-EF37-4852-99DC-C73C4C37EFC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841B82E1-9B62-4942-B824-B7897540155E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <r>
       <rPr>
@@ -59,16 +59,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>MR. APURBA TALUKDAR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>DR. KAMAL SAHARIA</t>
     </r>
   </si>
@@ -79,16 +69,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>DR. UPAKUL MAHANTA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>MR. JINTURAJ TALUKDAR (RS)</t>
     </r>
   </si>
@@ -99,16 +79,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>MR. NABAJIT SAHA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>MR. ANKUR SARMA</t>
     </r>
   </si>
@@ -189,16 +159,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>DR. PRASENJIT DAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>MRS. MALLIKA PAMSONG</t>
     </r>
   </si>
@@ -249,16 +209,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>DR. HIRUMANI KALITA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>MS. SIBANI BORUAH (RS)</t>
     </r>
   </si>
@@ -289,16 +239,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>DR. JABA SARMA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>DR. DIPEN TAYUNG</t>
     </r>
   </si>
@@ -389,16 +329,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>DR. BANASHREE SARKAR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>DR. AMBORISH ADHYAPAK</t>
     </r>
   </si>
@@ -419,16 +349,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>DR. PURANJAY MIPUN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>DR. RINKU MONI KALITA</t>
     </r>
   </si>
@@ -500,16 +420,6 @@
         <family val="2"/>
       </rPr>
       <t>DR. NIBEDITA MAHANTA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>DR. NIJARA RAJBONGSHI</t>
     </r>
   </si>
   <si>
@@ -872,7 +782,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -929,21 +839,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,37 +920,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1074,29 +943,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1104,35 +970,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1472,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1508,16 +1365,16 @@
       <c r="F1" s="2">
         <v>46003</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="20">
         <v>46006</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="5"/>
@@ -1526,8 +1383,8 @@
         <v>1</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1542,20 +1399,26 @@
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -1568,33 +1431,43 @@
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
@@ -1602,96 +1475,98 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="16">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="17"/>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="17"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17"/>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -1701,121 +1576,127 @@
         <v>1</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="17"/>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
-      <c r="H15" s="17"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="5"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="16">
-        <v>1</v>
-      </c>
-      <c r="H18" s="17"/>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="16">
-        <v>1</v>
-      </c>
-      <c r="H19" s="17"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
@@ -1830,8 +1711,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -1844,12 +1727,12 @@
       <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -1863,25 +1746,31 @@
       <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="16">
-        <v>1</v>
-      </c>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="5"/>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -1898,8 +1787,10 @@
       <c r="F24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -1914,10 +1805,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="16">
-        <v>1</v>
-      </c>
-      <c r="H25" s="17"/>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -1926,28 +1817,36 @@
       <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="4">
         <v>1</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -1962,19 +1861,19 @@
         <v>1</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="16">
-        <v>1</v>
-      </c>
-      <c r="H28" s="17"/>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="4">
         <v>1</v>
       </c>
@@ -1982,104 +1881,98 @@
       <c r="F29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="16">
-        <v>1</v>
-      </c>
-      <c r="H29" s="17"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="16">
-        <v>1</v>
-      </c>
-      <c r="H30" s="17"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5"/>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
       <c r="E31" s="4">
         <v>1</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="16">
-        <v>1</v>
-      </c>
-      <c r="H31" s="17"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16">
-        <v>1</v>
-      </c>
-      <c r="H33" s="17"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="18">
+        <v>1</v>
+      </c>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4">
-        <v>1</v>
-      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="4">
         <v>1</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="16">
-        <v>1</v>
-      </c>
-      <c r="H34" s="17"/>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
@@ -2096,8 +1989,10 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="15"/>
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
@@ -2112,88 +2007,100 @@
         <v>1</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="15"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5"/>
       <c r="E38" s="4">
         <v>1</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15"/>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="7">
-        <v>1</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1</v>
+      </c>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23"/>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10">
-        <v>1</v>
-      </c>
-      <c r="D41" s="10">
-        <v>1</v>
-      </c>
-      <c r="E41" s="10">
-        <v>1</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="20">
-        <v>1</v>
-      </c>
-      <c r="H41" s="21"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
@@ -2203,24 +2110,24 @@
         <v>1</v>
       </c>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5"/>
       <c r="F42" s="4">
         <v>1</v>
       </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="15"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
-        <v>1</v>
-      </c>
-      <c r="C43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
       <c r="D43" s="4">
         <v>1</v>
       </c>
@@ -2228,28 +2135,26 @@
       <c r="F43" s="4">
         <v>1</v>
       </c>
-      <c r="G43" s="16">
-        <v>1</v>
-      </c>
-      <c r="H43" s="17"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="4">
-        <v>1</v>
-      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="4">
         <v>1</v>
       </c>
       <c r="F44" s="5"/>
-      <c r="G44" s="16">
-        <v>1</v>
-      </c>
-      <c r="H44" s="17"/>
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -2258,14 +2163,16 @@
       <c r="B45" s="4">
         <v>1</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5"/>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="15"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -2275,15 +2182,15 @@
       <c r="C46" s="4">
         <v>1</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1</v>
-      </c>
-      <c r="G46" s="14"/>
-      <c r="H46" s="15"/>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
@@ -2293,47 +2200,51 @@
         <v>1</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
       <c r="F47" s="4">
         <v>1</v>
       </c>
-      <c r="G47" s="16">
-        <v>1</v>
-      </c>
-      <c r="H47" s="17"/>
-    </row>
-    <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="5"/>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="11">
+        <v>1</v>
+      </c>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
       <c r="F49" s="5"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="15"/>
+      <c r="G49" s="11">
+        <v>1</v>
+      </c>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
@@ -2344,14 +2255,12 @@
         <v>1</v>
       </c>
       <c r="D50" s="5"/>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="16">
-        <v>1</v>
-      </c>
-      <c r="H50" s="17"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
@@ -2361,15 +2270,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="15"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -2386,26 +2293,28 @@
       <c r="F52" s="4">
         <v>1</v>
       </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="15"/>
+      <c r="G52" s="11">
+        <v>1</v>
+      </c>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="4">
-        <v>1</v>
-      </c>
-      <c r="C53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4">
         <v>1</v>
       </c>
       <c r="F53" s="5"/>
-      <c r="G53" s="16">
-        <v>1</v>
-      </c>
-      <c r="H53" s="17"/>
+      <c r="G53" s="11">
+        <v>1</v>
+      </c>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -2414,16 +2323,16 @@
       <c r="B54" s="4">
         <v>1</v>
       </c>
-      <c r="C54" s="4">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="4">
-        <v>1</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
@@ -2433,15 +2342,15 @@
       <c r="C55" s="4">
         <v>1</v>
       </c>
-      <c r="D55" s="4">
-        <v>1</v>
-      </c>
-      <c r="E55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
       <c r="F55" s="5"/>
-      <c r="G55" s="16">
-        <v>1</v>
-      </c>
-      <c r="H55" s="17"/>
+      <c r="G55" s="11">
+        <v>1</v>
+      </c>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
@@ -2451,17 +2360,17 @@
         <v>1</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5"/>
       <c r="F56" s="4">
         <v>1</v>
       </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G56" s="13"/>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -2469,15 +2378,15 @@
       <c r="C57" s="4">
         <v>1</v>
       </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-      <c r="E57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="16">
-        <v>1</v>
-      </c>
-      <c r="H57" s="17"/>
+      <c r="G57" s="11">
+        <v>1</v>
+      </c>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -2488,55 +2397,57 @@
         <v>1</v>
       </c>
       <c r="D58" s="5"/>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="16">
-        <v>1</v>
-      </c>
-      <c r="H58" s="17"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="4">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="15"/>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="4">
-        <v>1</v>
-      </c>
-      <c r="C60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4">
         <v>1</v>
       </c>
       <c r="F60" s="5"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="15"/>
+      <c r="G60" s="11">
+        <v>1</v>
+      </c>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="4">
-        <v>1</v>
-      </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="5"/>
       <c r="D61" s="4">
         <v>1</v>
       </c>
@@ -2544,10 +2455,8 @@
       <c r="F61" s="4">
         <v>1</v>
       </c>
-      <c r="G61" s="16">
-        <v>1</v>
-      </c>
-      <c r="H61" s="17"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -2562,10 +2471,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="5"/>
-      <c r="G62" s="16">
-        <v>1</v>
-      </c>
-      <c r="H62" s="17"/>
+      <c r="G62" s="11">
+        <v>1</v>
+      </c>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
@@ -2582,8 +2491,8 @@
       <c r="F63" s="4">
         <v>1</v>
       </c>
-      <c r="G63" s="14"/>
-      <c r="H63" s="15"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -2593,51 +2502,49 @@
       <c r="C64" s="4">
         <v>1</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
       <c r="E64" s="4">
         <v>1</v>
       </c>
       <c r="F64" s="5"/>
-      <c r="G64" s="16">
-        <v>1</v>
-      </c>
-      <c r="H64" s="17"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="15"/>
     </row>
     <row r="65" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="4">
-        <v>1</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="4">
-        <v>1</v>
-      </c>
-      <c r="E65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
       <c r="F65" s="4">
         <v>1</v>
       </c>
-      <c r="G65" s="14"/>
-      <c r="H65" s="15"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="4">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="4">
-        <v>1</v>
-      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="16">
-        <v>1</v>
-      </c>
-      <c r="H66" s="17"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
@@ -2648,12 +2555,14 @@
         <v>1</v>
       </c>
       <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="4">
-        <v>1</v>
-      </c>
-      <c r="G67" s="14"/>
-      <c r="H67" s="15"/>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="11">
+        <v>1</v>
+      </c>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
@@ -2662,294 +2571,125 @@
       <c r="B68" s="4">
         <v>1</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="4">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="15"/>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="13"/>
+      <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="4">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="16">
-        <v>1</v>
-      </c>
-      <c r="H69" s="17"/>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="13"/>
+      <c r="H69" s="14"/>
     </row>
     <row r="70" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="4">
-        <v>1</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="4">
-        <v>1</v>
-      </c>
-      <c r="E70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
       <c r="F70" s="4">
         <v>1</v>
       </c>
-      <c r="G70" s="14"/>
-      <c r="H70" s="15"/>
-    </row>
-    <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="4">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="4">
-        <v>1</v>
-      </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="16">
-        <v>1</v>
-      </c>
-      <c r="H71" s="17"/>
-    </row>
-    <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="4">
-        <v>1</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="4">
-        <v>1</v>
-      </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="4">
-        <v>1</v>
-      </c>
-      <c r="G72" s="14"/>
-      <c r="H72" s="15"/>
-    </row>
-    <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="4">
-        <v>1</v>
-      </c>
-      <c r="D73" s="4">
-        <v>1</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1</v>
-      </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="24"/>
-    </row>
-    <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="4">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="4">
-        <v>1</v>
-      </c>
-      <c r="F74" s="4">
-        <v>1</v>
-      </c>
-      <c r="G74" s="14"/>
-      <c r="H74" s="15"/>
-    </row>
-    <row r="75" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="4">
-        <v>1</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="4">
-        <v>1</v>
-      </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="15"/>
-    </row>
-    <row r="76" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="4">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="4">
-        <v>1</v>
-      </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="16">
-        <v>1</v>
-      </c>
-      <c r="H76" s="17"/>
-    </row>
-    <row r="77" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="4">
-        <v>1</v>
-      </c>
-      <c r="C77" s="4">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="4">
-        <v>1</v>
-      </c>
-      <c r="G77" s="14"/>
-      <c r="H77" s="15"/>
-    </row>
-    <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="4">
-        <v>1</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="4">
-        <v>1</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="4">
-        <v>1</v>
-      </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="15"/>
-    </row>
-    <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="4">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="4">
-        <v>1</v>
-      </c>
-      <c r="F79" s="4">
-        <v>1</v>
-      </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="15"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
+  <mergeCells count="70">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G58:H58"/>
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
